--- a/yc-daily-post/12-17-2024_post.xlsx
+++ b/yc-daily-post/12-17-2024_post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292" count="292">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289" count="289">
   <x:si>
     <x:t>companyName</x:t>
   </x:si>
@@ -115,13 +115,13 @@
     <x:t>Create enterprise-grade AI assistants from your content</x:t>
   </x:si>
   <x:si>
-    <x:t>Research Engineer, Applied AI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeGB / DE / FR / NO / DK / SE / FI / PT / ES / BE / NL / IT / CH / AT / CZ / PL / EE / LV / LT / SK / HU / SI / HR / RU / UA / Remote (GB; DE; FR; NO; DK; SE; FI; PT; ES; BE; NL; IT; CH; AT; CZ; PL; EE; LV; LT; SK; HU; SI; HR; RU; UA)Machine learning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/kapa-ai/jobs/hrFWJfn-research-engineer-applied-ai</x:t>
+    <x:t>Software Engineer (Full-stack)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeGB / EG / RU / UA / TR / FR / IT / ES / PL / RO / KZ / NL / BE / SE / CZ / GR / PT / HU / AT / CH / BG / DK / FI / NO / SK / LT / EE / DE / Remote (GB; EG; RU; UA; TR; FR; IT; ES; PL; RO; KZ; NL; BE; SE; CZ; GR; PT; HU; AT; CH; BG; DK; FI; NO; SK; LT; EE; DE)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/kapa-ai/jobs/8QYADER-software-engineer-full-stack</x:t>
   </x:si>
   <x:si>
     <x:t>Delve (W24)</x:t>
@@ -283,6 +283,24 @@
     <x:t>https://www.ycombinator.com/companies/agave/jobs/jryB4nr-software-engineer</x:t>
   </x:si>
   <x:si>
+    <x:t>Converge (S23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/6ddaa5bebf2aae550b90599e16a46dc1f877c755.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All-in-one marketing measurement for B2C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Founding Engineer (#2 at $1M+ ARR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York, NY, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/converge/jobs/GQWZ40Z-founding-engineer-2-at-1m-arr</x:t>
+  </x:si>
+  <x:si>
     <x:t>HockeyStack (S23)</x:t>
   </x:si>
   <x:si>
@@ -292,10 +310,10 @@
     <x:t>The operating system for inbound B2B revenue</x:t>
   </x:si>
   <x:si>
-    <x:t>Full-Stack Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/hockeystack/jobs/JehKPk7-full-stack-engineer</x:t>
+    <x:t>Full Stack AI Product Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/hockeystack/jobs/2G8uh12-full-stack-ai-product-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Replicate (W20)</x:t>
@@ -307,13 +325,28 @@
     <x:t>Run machine learning models in the cloud</x:t>
   </x:si>
   <x:si>
-    <x:t>Customer Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, US / Remote (US; GB)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/replicate/jobs/Tv684Jd-customer-engineer</x:t>
+    <x:t>Full Stack Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/replicate/jobs/dCfdwgA-full-stack-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FlutterFlow (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/3df7b6e09c2fda2538b0426203b84e4e92ca7471.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Application Development Platform (Native Mobile + Web Apps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - Flutter (United States)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemoteFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/flutterflow/jobs/qxAuDS1-software-engineer-flutter-united-states</x:t>
   </x:si>
   <x:si>
     <x:t>Whatnot (W20)</x:t>
@@ -325,31 +358,31 @@
     <x:t>Whatnot is the largest livestream shopping platform in the U.S.</x:t>
   </x:si>
   <x:si>
-    <x:t>Identity and Access Management Architect - Ireland</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeDublin, D, IE / Remote (Dublin, D, IE)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/whatnot/jobs/BBJJVyI-identity-and-access-management-architect-ireland</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FlutterFlow (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/3df7b6e09c2fda2538b0426203b84e4e92ca7471.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application Development Platform (Native Mobile + Web Apps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer - AI (United States)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeMountain View, CA, US / New York, NY, US / Remote (US)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/flutterflow/jobs/UnyHKVJ-software-engineer-ai-united-states</x:t>
+    <x:t>Android Engineer, Risk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemote (San Francisco, CA, US; Seattle, WA, US; New York, NY, US; Los Angeles, CA, US)Android</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/whatnot/jobs/WgNPAgi-android-engineer-risk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BusinessOnBot (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/03c75b785d321bb19fc8ab6c4a6b736e7b35df44.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automated user acquisition &amp; selling on WhatsApp for businesses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeBangalore, IndiaBackend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/businessonbot/jobs/ZEJQDyH-lead-software-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Luminai (S20)</x:t>
@@ -376,127 +409,145 @@
     <x:t>AI lipsync tool for video content creators</x:t>
   </x:si>
   <x:si>
+    <x:t>Fullstack/Product Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan FranciscoFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/sync-2/jobs/aiRMOTu-fullstack-product-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sieve (W22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b247c36fd7cd016d5bb505d32429cd07b9acfcbb.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Video AI for Developers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI / ML Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan Francisco, CA, USMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/sieve/jobs/ZdRY3ye-ai-ml-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arnata (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/48ce3bed951164a13bbe13af572bd54c82ca1e8e.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI agents for the logistics industry.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI/ML Engineer (Founding Engineer)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/arnata/jobs/FpFSOhJ-ai-ml-engineer-founding-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lilac Labs (S24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/cf6d969f27356db2fc06ab6ccaa28ee3d3ec43ef.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We automate the person taking orders at drive-thrus with a voice AI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/lilac-labs/jobs/furg1jb-founding-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Candid Health (W20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/7f1fc72499603c65b614fa89ee6cd64919abda54.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The revenue cycle automation platform.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frontend Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York, NY, US / Denver, CO, USFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/candid-health/jobs/Q5G26yJ-frontend-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamarind Bio (W24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/9f825e68bedd9d6fae6a9628ae002227d27ab4d2.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy to use computational biology tools for drug discovery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Founding Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/tamarind-bio/jobs/OEkMxsJ-founding-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flock Safety (S17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/ee69b5c905088288ff0fc007921dde14514a40a1.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The first public safety operating system that eliminates crime.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Embedded Systems Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemote, US / Remote (US)Embedded systems</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/flock-safety/jobs/4ej20wJ-senior-embedded-systems-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terra API (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/97a6c134a2281fc0b76fb07a0fe0c197e4948543.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>API for developers to connect to health data from wearables and…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeLondon, England, GBMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/terra-api/jobs/0f5CP0r-ai-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quivr (W24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/55e2d5d59eda45392b5f80742e4d67462860257e.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open Source Chat-Powered Second Brain</x:t>
+  </x:si>
+  <x:si>
     <x:t>Frontend Engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>Full-timeSan FranciscoFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/sync-2/jobs/PLNEgvz-frontend-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sieve (W22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b247c36fd7cd016d5bb505d32429cd07b9acfcbb.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Video AI for Developers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/sieve/jobs/CgUcah9-product-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>arnata (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/48ce3bed951164a13bbe13af572bd54c82ca1e8e.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI agents for the logistics industry.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Founding Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/arnata/jobs/0ICIGd7-founding-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Candid Health (W20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/7f1fc72499603c65b614fa89ee6cd64919abda54.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The revenue cycle automation platform.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer, Full Stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, US / New York, NY, US / Denver, CO, USFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/candid-health/jobs/WIMeHdk-software-engineer-full-stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tamarind Bio (W24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/9f825e68bedd9d6fae6a9628ae002227d27ab4d2.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy to use computational biology tools for drug discovery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/tamarind-bio/jobs/OEkMxsJ-founding-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Converge (S23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/6ddaa5bebf2aae550b90599e16a46dc1f877c755.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All-in-one marketing measurement for B2C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Founding Engineer (#2 at $1M+ ARR)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeNew York, NY, USFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/converge/jobs/GQWZ40Z-founding-engineer-2-at-1m-arr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flock Safety (S17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/ee69b5c905088288ff0fc007921dde14514a40a1.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The first public safety operating system that eliminates crime.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Embedded Systems Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeRemote, US / Remote (US)Embedded systems</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/flock-safety/jobs/4ej20wJ-senior-embedded-systems-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BusinessOnBot (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/03c75b785d321bb19fc8ab6c4a6b736e7b35df44.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Automated user acquisition &amp; selling on WhatsApp for businesses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobile App Developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBengaluru, KA, INFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/businessonbot/jobs/9DyLiGP-mobile-app-developer</x:t>
+    <x:t>Full-timeParis, Île-de-France, FRFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/quivr/jobs/bP0gtXc-frontend-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Telematica (W22)</x:t>
@@ -514,36 +565,6 @@
     <x:t>https://www.ycombinator.com/companies/telematica/jobs/DzqFfut-full-stack-software-engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>Terra API (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/97a6c134a2281fc0b76fb07a0fe0c197e4948543.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>API for developers to connect to health data from wearables and…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeLondon, England, GBMachine learning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/terra-api/jobs/0f5CP0r-ai-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lilac Labs (S24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/cf6d969f27356db2fc06ab6ccaa28ee3d3ec43ef.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We automate the person taking orders at drive-thrus with a voice AI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/lilac-labs/jobs/furg1jb-founding-engineer</x:t>
-  </x:si>
-  <x:si>
     <x:t>Etleap (W13)</x:t>
   </x:si>
   <x:si>
@@ -553,28 +574,13 @@
     <x:t>Etleap is an ETL solution for creating perfect data pipelines.</x:t>
   </x:si>
   <x:si>
-    <x:t>DevOps Engineer Latin America (remote)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBR / AR / CL / PE / UY / CO / VE / EC / GY / BO / PY / Remote (BR; AR; CL; PE; UY; CO; VE; EC; GY; BO; PY)Devops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/etleap/jobs/lrNVGB2-devops-engineer-latin-america-remote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quivr (W24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/55e2d5d59eda45392b5f80742e4d67462860257e.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Open Source Chat-Powered Second Brain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeParis, Île-de-France, FRFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/quivr/jobs/bP0gtXc-frontend-engineer</x:t>
+    <x:t>Software Engineer - Integrations South America (remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeBR / Remote (BR)Backend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/etleap/jobs/UQuf3oX-software-engineer-integrations-south-america-remote</x:t>
   </x:si>
   <x:si>
     <x:t>PlayHT (W23)</x:t>
@@ -586,13 +592,10 @@
     <x:t>Our mission is to make Voice AI accessible and useful to all.</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Machine Learning Engineer/Researcher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timePalo Alto, CAFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/playht/jobs/kaUiZJj-junior-machine-learning-engineer-researcher</x:t>
+    <x:t>Full-timePalo Alto, CA, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/playht/jobs/iLOSSM5-software-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Jupiter (S19)</x:t>
@@ -613,6 +616,39 @@
     <x:t>https://www.ycombinator.com/companies/jupiter/jobs/kpTFvR9-senior-backend-engineer</x:t>
   </x:si>
   <x:si>
+    <x:t>Wefunder (W13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/86fe89dc40132aeb8f280105ad161eb9c7281ebc.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We're Robinhood for pre-IPO startups. Everyone can invest $100.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Stack, Senior Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/wefunder/jobs/oC8Vfe1-full-stack-senior-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spellbrush (W18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fb441dcc9519c0cc22e2464b6b1c3b1ca462403b.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Making Anime Real</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Researcher (Anime)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeChiyoda City, Tokyo, JP / San Francisco, CA, US / RemoteMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/spellbrush/jobs/qF8y6Bm-ai-researcher-anime</x:t>
+  </x:si>
+  <x:si>
     <x:t>Fathom (W21)</x:t>
   </x:si>
   <x:si>
@@ -622,49 +658,28 @@
     <x:t>Never take notes again with the #1 AI Meeting Assistant</x:t>
   </x:si>
   <x:si>
-    <x:t>Backend Engineer (Remote)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeUS / CA / Remote (US; CA)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/fathom/jobs/Pg8RFWC-backend-engineer-remote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wefunder (W13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/86fe89dc40132aeb8f280105ad161eb9c7281ebc.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We're Robinhood for pre-IPO startups. Everyone can invest $100.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full Stack, Senior Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeRemoteFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/wefunder/jobs/oC8Vfe1-full-stack-senior-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spellbrush (W18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fb441dcc9519c0cc22e2464b6b1c3b1ca462403b.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Making Anime Real</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anime Games - Unity Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA / Tokyo, JP / RemoteFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/spellbrush/jobs/SmU4cmU-anime-games-unity-engineer</x:t>
+    <x:t>Full-Stack Engineer (Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeCA / US / Remote (CA; US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/fathom/jobs/OVTRjXb-full-stack-engineer-remote</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aurelian (S22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b2c5063acaca8254ce02340b8663c47624a60972.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automating non-emergency police calls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSeattle, WA, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/aurelian/jobs/dPngBXY-full-stack-software-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Myria (W22)</x:t>
@@ -724,13 +739,13 @@
     <x:t>Teaching Generative AI the Language of Biology</x:t>
   </x:si>
   <x:si>
-    <x:t>Research Intern, Machine Learning (PhD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InternshipNew York, NY, US / Remote (New York, NY, US; San Francisco, CA, US)Machine learning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/output/jobs/bzBUJWe-research-intern-machine-learning-phd</x:t>
+    <x:t>Machine Learning Research Scientist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York, NY, USMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/output/jobs/NWhaOJq-machine-learning-research-scientist</x:t>
   </x:si>
   <x:si>
     <x:t>Novig (S22)</x:t>
@@ -778,31 +793,43 @@
     <x:t>AI Servicing for Auto Lenders</x:t>
   </x:si>
   <x:si>
-    <x:t>Founding Front End Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeLos Angeles, CA, USFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/salient/jobs/wCFyeUM-founding-front-end-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Measured (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/cbc687e580ddf0ed25424f22d04d996455ff1995.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Telemedicine platform for chronic conditions like obesity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-Stack Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeRemote (US)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/measured/jobs/1i4HPeo-full-stack-software-engineer</x:t>
+    <x:t>Full-timeLos Angeles, CA, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/salient/jobs/KKnf2sX-founding-full-stack-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fieldguide (S20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/44c799568df44fb4f129df3ebec9417b8d588116.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vertical AI for Audit &amp; Advisory Firms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan Francisco / Remote (US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/fieldguide/jobs/hiGbcFx-senior-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Humanloop (S20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/364a02bb6e0092111a4c8bbb119301d2264c7ace.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Humanloop is the LLM evals platform for enterprises.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frontend Product Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeLondon, England, GB / San Francisco, CA, USFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/humanloop/jobs/tniHzJVxT-frontend-product-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>OffDeal (W24)</x:t>
@@ -818,42 +845,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.ycombinator.com/companies/offdeal/jobs/99yJvlo-founding-full-stack-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Humanloop (S20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/364a02bb6e0092111a4c8bbb119301d2264c7ace.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Humanloop is the LLM evals platform for enterprises.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frontend Product Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeLondon, England, GB / San Francisco, CA, USFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/humanloop/jobs/tniHzJVxT-frontend-product-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fieldguide (S20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/44c799568df44fb4f129df3ebec9417b8d588116.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vertical AI for Audit &amp; Advisory Firms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Platform Engineer, Infrastructure &amp; Security</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, US / Remote (US)Devops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/fieldguide/jobs/wlHhxce-senior-platform-engineer-infrastructure-security</x:t>
   </x:si>
   <x:si>
     <x:t>truemetrics (S23)</x:t>
@@ -1566,27 +1557,27 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>99</x:v>
@@ -1606,44 +1597,44 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
+      <x:c r="E19" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="s">
+      <x:c r="F19" s="0" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>115</x:v>
@@ -1683,10 +1674,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>127</x:v>
@@ -1706,67 +1697,67 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>148</x:v>
@@ -1806,27 +1797,27 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="D29" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="E29" s="0" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>165</x:v>
@@ -1863,110 +1854,110 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>204</x:v>
@@ -2023,30 +2014,30 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="E39" s="0" t="s">
+      <x:c r="F39" s="0" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
+      <x:c r="C40" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="C40" s="0" t="s">
+      <x:c r="D40" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D40" s="0" t="s">
+      <x:c r="E40" s="0" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>227</x:v>
@@ -2066,7 +2057,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>232</x:v>
@@ -2086,190 +2077,190 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
+      <x:c r="C43" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="s">
+      <x:c r="D43" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="D43" s="0" t="s">
+      <x:c r="E43" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="E43" s="0" t="s">
+      <x:c r="F43" s="0" t="s">
         <x:v>243</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
+      <x:c r="C44" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
+      <x:c r="D44" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="D44" s="0" t="s">
+      <x:c r="E44" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="E44" s="0" t="s">
+      <x:c r="F44" s="0" t="s">
         <x:v>249</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="s">
+      <x:c r="D45" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="D45" s="0" t="s">
+      <x:c r="E45" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="E45" s="0" t="s">
+      <x:c r="F45" s="0" t="s">
         <x:v>255</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
+      <x:c r="C46" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
+      <x:c r="D46" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="D46" s="0" t="s">
+      <x:c r="F46" s="0" t="s">
         <x:v>260</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="F47" s="0" t="s">
         <x:v>265</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="B48" s="0" t="s">
+      <x:c r="D48" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="s">
+      <x:c r="E48" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="D48" s="0" t="s">
+      <x:c r="F48" s="0" t="s">
         <x:v>271</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="s">
-        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
+      <x:c r="D49" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="C49" s="0" t="s">
+      <x:c r="E49" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
         <x:v>276</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="B50" s="0" t="s">
+      <x:c r="E50" s="0" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="C50" s="0" t="s">
+      <x:c r="F50" s="0" t="s">
         <x:v>282</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="s">
+      <x:c r="E51" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="C51" s="0" t="s">
+      <x:c r="F51" s="0" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="s">
-        <x:v>291</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
